--- a/biology/Zoologie/Ceutorhynchus/Ceutorhynchus.xlsx
+++ b/biology/Zoologie/Ceutorhynchus/Ceutorhynchus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceutorhynchus est un genre d'insectes coléoptères de la famille des Curculionidae. Ces insectes, qui appartiennent au groupe des charançons, sont des ravageurs des plantes cultivées ou des denrées stockées.   
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (30 août 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (30 août 2014) :
 Ceutorhynchus abbreviatulus
 Ceutorhynchus abbreviatus
 Ceutorhynchus acephalus
@@ -646,7 +660,7 @@
 Ceutorhynchus uncirostris
 Ceutorhynchus urticae
 Ceutorhynchus viduatus
-Selon ITIS      (30 août 2014)[2] :
+Selon ITIS      (30 août 2014) :
 Ceutorhynchus adjunctus Deitz, 1896
 Ceutorhynchus adspersulus Dietz, 1896
 Ceutorhynchus aeratus Deitz, 1896
@@ -750,9 +764,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles référencées sont au nombre de quatorze[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles référencées sont au nombre de quatorze :
 †Ceutorhynchus alekseevi, Legalov 2016
 †Ceutorhynchus blaisdelli, Wickham 1916
 †Ceutorhynchus chambonensis, Théobald 1935
@@ -767,7 +783,7 @@
 †Ceutorhynchus irvingi, Scudder 1893
 †Ceutorhynchus obliquus, Förster 1891
 †Ceutorhynchus succinus, Legalov 2013
-†Ceutorhynchus zerovae, Legalov et al. 2021 [3]
+†Ceutorhynchus zerovae, Legalov et al. 2021 
 Remarque : l'espèce Ceutorhynchus miegi a été déclarée nomen dubium de la tribu Phytobiini.
 </t>
         </is>
